--- a/data/Exploring AI-Driven Decision-Making in Business Contexts(1-119).xlsx
+++ b/data/Exploring AI-Driven Decision-Making in Business Contexts(1-119).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2b7bd6fc4e1fffb/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2b7bd6fc4e1fffb/Projetos/Master-Theses/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B5E34EF-7731-49D2-AEF1-92406A1B8961}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8A22AB2-9586-432C-91F8-9C38956056D8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All data" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
     <sheet name="Tactical" sheetId="4" r:id="rId4"/>
     <sheet name="Strategic" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Operational!$A$1:$U$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Strategic!$A$1:$AC$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tactical!$A$1:$Y$120</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1589,11 +1594,11 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:CH120" totalsRowShown="0">
-  <autoFilter ref="A1:CH120" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
+  <autoFilter ref="A1:CH120" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+    <filterColumn colId="84">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="86">
@@ -1987,18 +1992,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BP15" sqref="BP15"/>
+    <sheetView topLeftCell="BS56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BZ58" sqref="BZ58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="67" width="20" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="62.85546875" customWidth="1"/>
-    <col min="69" max="86" width="20" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="62.86328125" customWidth="1"/>
+    <col min="69" max="76" width="20" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="54.73046875" customWidth="1"/>
+    <col min="78" max="84" width="20" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2306,7 +2315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2444,7 +2453,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2540,7 +2549,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2678,7 +2687,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2774,7 +2783,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2870,7 +2879,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2918,7 +2927,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2966,7 +2975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3110,7 +3119,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3158,7 +3167,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3206,7 +3215,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3254,7 +3263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3350,7 +3359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3398,7 +3407,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3494,7 +3503,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3590,7 +3599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3638,7 +3647,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3686,7 +3695,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3734,7 +3743,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3830,7 +3839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3926,7 +3935,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3974,7 +3983,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4022,7 +4031,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4403,7 +4412,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4499,7 +4508,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4595,7 +4604,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4691,7 +4700,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4859,7 +4868,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4910,7 +4919,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4964,7 +4973,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5060,7 +5069,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5156,7 +5165,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5252,7 +5261,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5348,7 +5357,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5444,7 +5453,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5540,7 +5549,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5636,7 +5645,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5729,7 +5738,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5873,7 +5882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5969,7 +5978,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6065,7 +6074,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6161,7 +6170,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6260,7 +6269,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6356,7 +6365,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6452,7 +6461,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6548,7 +6557,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6644,7 +6653,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6740,7 +6749,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6836,7 +6845,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6932,7 +6941,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7031,7 +7040,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7127,7 +7136,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7223,7 +7232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7319,7 +7328,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7415,7 +7424,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7511,7 +7520,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7607,7 +7616,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7703,7 +7712,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7799,7 +7808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7847,7 +7856,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7892,7 +7901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8006,7 +8015,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8102,7 +8111,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8198,7 +8207,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8294,7 +8303,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8390,7 +8399,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8489,7 +8498,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8603,7 +8612,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8699,7 +8708,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="85" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8795,7 +8804,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="86" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8891,7 +8900,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8987,7 +8996,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9083,7 +9092,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9179,7 +9188,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9275,7 +9284,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9368,7 +9377,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="92" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9464,7 +9473,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:86" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9578,7 +9587,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -9674,7 +9683,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -9770,7 +9779,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -9866,7 +9875,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9965,7 +9974,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10064,7 +10073,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10163,7 +10172,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="100" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10259,7 +10268,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10355,7 +10364,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="102" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -10451,7 +10460,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10547,7 +10556,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="104" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -10643,7 +10652,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -10739,7 +10748,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="106" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -10835,7 +10844,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="107" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -10931,7 +10940,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11027,7 +11036,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11123,7 +11132,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11219,7 +11228,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="111" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11315,7 +11324,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="112" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11411,7 +11420,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11507,7 +11516,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="114" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11603,7 +11612,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="115" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11699,7 +11708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11795,7 +11804,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="117" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11891,7 +11900,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="118" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11987,7 +11996,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="119" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12086,7 +12095,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12202,22 +12211,22 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="84" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="112.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="112.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="92" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12252,7 +12261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12281,7 +12290,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12310,7 +12319,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12333,7 +12342,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12362,7 +12371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12385,7 +12394,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12420,7 +12429,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12455,7 +12464,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12490,7 +12499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12525,7 +12534,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12560,7 +12569,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12595,7 +12604,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12630,7 +12639,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12665,7 +12674,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12700,7 +12709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12735,7 +12744,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -12770,7 +12779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -12805,7 +12814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -12840,7 +12849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -12875,7 +12884,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12910,7 +12919,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12945,7 +12954,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12980,7 +12989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13015,7 +13024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13050,7 +13059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13085,7 +13094,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13120,7 +13129,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13155,7 +13164,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13190,7 +13199,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -13225,7 +13234,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13260,7 +13269,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13295,7 +13304,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13330,7 +13339,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13365,7 +13374,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13400,7 +13409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13435,7 +13444,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13464,7 +13473,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13496,7 +13505,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13525,7 +13534,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13554,7 +13563,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -13583,7 +13592,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -13615,7 +13624,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -13650,7 +13659,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -13685,7 +13694,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -13714,7 +13723,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -13743,7 +13752,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13772,7 +13781,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -13801,7 +13810,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -13830,7 +13839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -13859,7 +13868,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -13888,7 +13897,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -13914,7 +13923,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -13943,7 +13952,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -13978,7 +13987,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -14007,7 +14016,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -14036,7 +14045,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -14065,7 +14074,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -14094,7 +14103,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -14123,7 +14132,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -14152,7 +14161,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -14181,7 +14190,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -14210,7 +14219,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -14239,7 +14248,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -14268,7 +14277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -14297,7 +14306,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -14326,7 +14335,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -14355,7 +14364,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14384,7 +14393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14413,7 +14422,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -14442,7 +14451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14471,7 +14480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -14500,7 +14509,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14526,7 +14535,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14555,7 +14564,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14590,7 +14599,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14622,7 +14631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14654,7 +14663,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14683,7 +14692,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14712,7 +14721,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14741,7 +14750,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14770,7 +14779,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14799,7 +14808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14834,7 +14843,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14863,7 +14872,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14892,7 +14901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14921,7 +14930,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14950,7 +14959,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14979,7 +14988,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15008,7 +15017,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15037,7 +15046,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15063,7 +15072,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15092,7 +15101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15124,7 +15133,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15153,7 +15162,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15182,7 +15191,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15211,7 +15220,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15240,7 +15249,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15269,7 +15278,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15298,7 +15307,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15327,7 +15336,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -15356,7 +15365,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -15385,7 +15394,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -15414,7 +15423,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -15443,7 +15452,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -15472,7 +15481,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -15501,7 +15510,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -15530,7 +15539,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -15559,7 +15568,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -15588,7 +15597,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -15617,7 +15626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -15646,7 +15655,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -15675,7 +15684,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -15704,7 +15713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -15733,7 +15742,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -15762,7 +15771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -15791,7 +15800,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -15820,7 +15829,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -15849,7 +15858,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -15878,7 +15887,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -15914,20 +15923,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB50E537-CF5F-4008-86E5-E4661F8B1D53}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U120"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" customWidth="1"/>
-    <col min="4" max="21" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="81.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="75.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15992,7 +16006,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16000,7 +16014,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16008,12 +16022,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16021,12 +16035,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16034,7 +16048,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16042,7 +16056,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16050,7 +16064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16058,7 +16072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16066,7 +16080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16074,7 +16088,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16082,7 +16096,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16090,7 +16104,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16098,7 +16112,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16106,7 +16120,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16114,7 +16128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16122,7 +16136,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16130,7 +16144,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16138,7 +16152,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16146,7 +16160,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16154,7 +16168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -16162,7 +16176,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -16170,7 +16184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -16178,7 +16192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -16186,7 +16200,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -16194,7 +16208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -16202,7 +16216,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -16210,7 +16224,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -16218,7 +16232,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -16226,7 +16240,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -16234,7 +16248,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -16242,7 +16256,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -16250,7 +16264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -16258,7 +16272,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -16266,7 +16280,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -16328,7 +16342,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -16390,7 +16404,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -16452,7 +16466,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -16514,7 +16528,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -16576,7 +16590,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -16638,7 +16652,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -16649,7 +16663,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -16657,7 +16671,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -16719,7 +16733,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -16781,7 +16795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -16843,7 +16857,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16905,7 +16919,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -16967,7 +16981,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17029,7 +17043,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17091,7 +17105,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17153,7 +17167,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -17215,7 +17229,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17223,7 +17237,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17285,7 +17299,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17347,7 +17361,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17409,7 +17423,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -17474,7 +17488,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -17536,7 +17550,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -17598,7 +17612,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -17660,7 +17674,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -17722,7 +17736,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -17784,7 +17798,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17846,7 +17860,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -17908,7 +17922,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -17973,7 +17987,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18035,7 +18049,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18097,7 +18111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18159,7 +18173,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18221,7 +18235,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -18283,7 +18297,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -18345,7 +18359,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -18410,7 +18424,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -18472,7 +18486,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -18480,7 +18494,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -18488,7 +18502,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -18496,7 +18510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -18558,7 +18572,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -18620,7 +18634,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -18682,7 +18696,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -18744,7 +18758,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -18809,7 +18823,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -18817,7 +18831,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -18879,7 +18893,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -18941,7 +18955,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -19003,7 +19017,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -19065,7 +19079,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -19127,7 +19141,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -19189,7 +19203,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -19251,7 +19265,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -19313,7 +19327,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -19375,7 +19389,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -19383,7 +19397,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -19445,7 +19459,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -19507,7 +19521,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -19569,7 +19583,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -19634,7 +19648,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -19699,7 +19713,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -19764,7 +19778,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -19826,7 +19840,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -19888,7 +19902,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -19950,7 +19964,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -20012,7 +20026,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -20074,7 +20088,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -20136,7 +20150,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -20198,7 +20212,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -20260,7 +20274,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -20322,7 +20336,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -20384,7 +20398,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -20446,7 +20460,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -20508,7 +20522,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -20570,7 +20584,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -20632,7 +20646,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -20694,7 +20708,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -20756,7 +20770,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -20818,7 +20832,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -20880,7 +20894,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -20942,7 +20956,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -21007,7 +21021,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -21073,48 +21087,56 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U120" xr:uid="{EB50E537-CF5F-4008-86E5-E4661F8B1D53}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170A3CF1-A8E4-4080-8AB3-3BCCCE953F81}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="112.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="121.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="108.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="110.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="109.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="121.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="108.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="110.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="109.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="93" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="123.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="95.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="98.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="102.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="95.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="103.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="92.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="116.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="97.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="103.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="68.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="123.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="70.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="95.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="98.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="102.73046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="95.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="103.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="92.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="116.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="97.1328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="73.1328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="103.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="68.59765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21191,7 +21213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21199,7 +21221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21207,12 +21229,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21220,12 +21242,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21233,7 +21255,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21241,7 +21263,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21249,7 +21271,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -21257,7 +21279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -21265,7 +21287,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -21273,7 +21295,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -21281,7 +21303,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -21289,7 +21311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -21297,7 +21319,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -21305,7 +21327,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -21313,7 +21335,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -21321,7 +21343,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -21329,7 +21351,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -21337,7 +21359,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -21345,7 +21367,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -21353,7 +21375,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -21361,7 +21383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -21369,7 +21391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -21377,7 +21399,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -21385,7 +21407,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -21393,7 +21415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -21401,7 +21423,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -21409,7 +21431,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -21417,7 +21439,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -21425,7 +21447,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -21433,7 +21455,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -21441,7 +21463,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -21449,7 +21471,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -21457,7 +21479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -21465,12 +21487,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -21547,22 +21569,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -21639,7 +21661,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -21647,7 +21669,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -21655,52 +21677,52 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -21708,107 +21730,107 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -21816,7 +21838,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -21824,7 +21846,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -21901,32 +21923,32 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -21934,52 +21956,52 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -22056,188 +22078,196 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y120" xr:uid="{170A3CF1-A8E4-4080-8AB3-3BCCCE953F81}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34786D65-405F-4542-981E-C0289A7C4977}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC120"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView topLeftCell="Y1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="119.85546875" customWidth="1"/>
-    <col min="5" max="5" width="126.28515625" customWidth="1"/>
-    <col min="6" max="6" width="54.7109375" customWidth="1"/>
-    <col min="7" max="7" width="115.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="137.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="133.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="120.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="118.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="131.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.265625" customWidth="1"/>
+    <col min="4" max="4" width="119.86328125" customWidth="1"/>
+    <col min="5" max="5" width="126.265625" customWidth="1"/>
+    <col min="6" max="6" width="54.73046875" customWidth="1"/>
+    <col min="7" max="7" width="115.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="137.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="133.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="120.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="118.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="131.3984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="57" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="67.59765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="52" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="83.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="76.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="83.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="76.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="70.1328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="62.1328125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="55" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="97.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="79.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="81.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="75.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="97.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="79.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="81.3984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="62.1328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="70.86328125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22326,7 +22356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22335,7 +22365,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22343,7 +22373,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22405,7 +22435,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22413,7 +22443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22475,7 +22505,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22483,7 +22513,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22491,7 +22521,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22499,7 +22529,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -22507,7 +22537,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -22515,7 +22545,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -22523,7 +22553,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -22531,7 +22561,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -22539,7 +22569,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -22547,7 +22577,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -22555,7 +22585,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -22563,7 +22593,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -22571,7 +22601,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -22579,7 +22609,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -22587,7 +22617,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -22595,7 +22625,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -22603,7 +22633,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -22611,7 +22641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -22619,7 +22649,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -22627,7 +22657,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -22635,7 +22665,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -22643,7 +22673,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -22651,7 +22681,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -22659,7 +22689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -22667,7 +22697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -22675,7 +22705,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -22683,7 +22713,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -22691,7 +22721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -22699,7 +22729,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -22707,7 +22737,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -22784,37 +22814,37 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -22822,7 +22852,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -22836,52 +22866,52 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -22889,107 +22919,107 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -22997,7 +23027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -23005,37 +23035,37 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -23109,192 +23139,199 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC120" xr:uid="{34786D65-405F-4542-981E-C0289A7C4977}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>